--- a/biology/Zoologie/Coptacrinae/Coptacrinae.xlsx
+++ b/biology/Zoologie/Coptacrinae/Coptacrinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Coptacrinae[1] (synonymes: Coptacridinae, Coptacrae[2]) sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Coptacrinae (synonymes: Coptacridinae, Coptacrae) sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Afrique et en Asie.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (1er avril 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (1er avril 2010) :
 Bocagella Bolívar, 1889
 Coptacra Stål, 1873
 Coptacrella Bolívar, 1902
@@ -592,7 +608,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brunner von Wattenwyl , 1893 : Révision du système des orthoptères et description des espèces rapportées par M. Leonardo Fea de Birmanie.  Annali del Museo Civico di Storia Naturale ‘Giacomo Doria’, Genova, vol. 33, p. 1–230 (texte original).</t>
         </is>
